--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H2">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I2">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J2">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.915118</v>
+        <v>11.235708</v>
       </c>
       <c r="N2">
-        <v>1.830236</v>
+        <v>22.471416</v>
       </c>
       <c r="O2">
-        <v>0.025381845354499</v>
+        <v>0.1878511783758748</v>
       </c>
       <c r="P2">
-        <v>0.02093680630390696</v>
+        <v>0.1725468785395508</v>
       </c>
       <c r="Q2">
-        <v>6.937886129057</v>
+        <v>153.65513259261</v>
       </c>
       <c r="R2">
-        <v>27.751544516228</v>
+        <v>614.6205303704398</v>
       </c>
       <c r="S2">
-        <v>0.004384787234913067</v>
+        <v>0.0484730667339575</v>
       </c>
       <c r="T2">
-        <v>0.002706325132874264</v>
+        <v>0.03473348013569086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H3">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I3">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J3">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>31.830549</v>
       </c>
       <c r="O3">
-        <v>0.2942855720124992</v>
+        <v>0.1773929492768657</v>
       </c>
       <c r="P3">
-        <v>0.3641224623272734</v>
+        <v>0.2444110274203558</v>
       </c>
       <c r="Q3">
-        <v>80.44016341330449</v>
+        <v>145.1006982111725</v>
       </c>
       <c r="R3">
-        <v>482.640980479827</v>
+        <v>870.6041892670348</v>
       </c>
       <c r="S3">
-        <v>0.05083868416804349</v>
+        <v>0.04577442815517289</v>
       </c>
       <c r="T3">
-        <v>0.04706705296578462</v>
+        <v>0.04919964729412844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.5814115</v>
+        <v>13.6756075</v>
       </c>
       <c r="H4">
-        <v>15.162823</v>
+        <v>27.351215</v>
       </c>
       <c r="I4">
-        <v>0.1727528937976077</v>
+        <v>0.2580397267296714</v>
       </c>
       <c r="J4">
-        <v>0.129261602442644</v>
+        <v>0.2012988031407901</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,90 +685,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.829841</v>
+        <v>37.9658605</v>
       </c>
       <c r="N4">
-        <v>39.659682</v>
+        <v>75.931721</v>
       </c>
       <c r="O4">
-        <v>0.55000334128091</v>
+        <v>0.6347558723472594</v>
       </c>
       <c r="P4">
-        <v>0.4536830660682806</v>
+        <v>0.5830420940400936</v>
       </c>
       <c r="Q4">
-        <v>150.3381846005715</v>
+        <v>519.2062065977536</v>
       </c>
       <c r="R4">
-        <v>601.352738402286</v>
+        <v>2076.824826391015</v>
       </c>
       <c r="S4">
-        <v>0.09501466880463041</v>
+        <v>0.163792231840541</v>
       </c>
       <c r="T4">
-        <v>0.05864380012107787</v>
+        <v>0.1173656757109708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.5814115</v>
+        <v>8.049616333333333</v>
       </c>
       <c r="H5">
-        <v>15.162823</v>
+        <v>24.148849</v>
       </c>
       <c r="I5">
-        <v>0.1727528937976077</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J5">
-        <v>0.129261602442644</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.698895333333333</v>
+        <v>11.235708</v>
       </c>
       <c r="N5">
-        <v>14.096686</v>
+        <v>22.471416</v>
       </c>
       <c r="O5">
-        <v>0.1303292413520919</v>
+        <v>0.1878511783758748</v>
       </c>
       <c r="P5">
-        <v>0.1612576653005389</v>
+        <v>0.1725468785395508</v>
       </c>
       <c r="Q5">
-        <v>35.62425911742966</v>
+        <v>90.44313863336399</v>
       </c>
       <c r="R5">
-        <v>213.745554704578</v>
+        <v>542.6588318001839</v>
       </c>
       <c r="S5">
-        <v>0.02251475359002071</v>
+        <v>0.02853179207639741</v>
       </c>
       <c r="T5">
-        <v>0.0208444242229072</v>
+        <v>0.03066677538973308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>24.148849</v>
       </c>
       <c r="I6">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J6">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.915118</v>
+        <v>10.610183</v>
       </c>
       <c r="N6">
-        <v>1.830236</v>
+        <v>31.830549</v>
       </c>
       <c r="O6">
-        <v>0.025381845354499</v>
+        <v>0.1773929492768657</v>
       </c>
       <c r="P6">
-        <v>0.02093680630390696</v>
+        <v>0.2444110274203558</v>
       </c>
       <c r="Q6">
-        <v>7.366348799727333</v>
+        <v>85.40790237645565</v>
       </c>
       <c r="R6">
-        <v>44.19809279836399</v>
+        <v>768.6711213881009</v>
       </c>
       <c r="S6">
-        <v>0.00465557831076017</v>
+        <v>0.02694334306734622</v>
       </c>
       <c r="T6">
-        <v>0.004310189268758565</v>
+        <v>0.04343919834490594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>24.148849</v>
       </c>
       <c r="I7">
-        <v>0.1834215852211454</v>
+        <v>0.1518850843687956</v>
       </c>
       <c r="J7">
-        <v>0.2058666066922657</v>
+        <v>0.1777301081845054</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.610183</v>
+        <v>37.9658605</v>
       </c>
       <c r="N7">
-        <v>31.830549</v>
+        <v>75.931721</v>
       </c>
       <c r="O7">
-        <v>0.2942855720124992</v>
+        <v>0.6347558723472594</v>
       </c>
       <c r="P7">
-        <v>0.3641224623272734</v>
+        <v>0.5830420940400936</v>
       </c>
       <c r="Q7">
-        <v>85.40790237645565</v>
+        <v>305.6106107898548</v>
       </c>
       <c r="R7">
-        <v>768.6711213881009</v>
+        <v>1833.663664739129</v>
       </c>
       <c r="S7">
-        <v>0.05397832612624412</v>
+        <v>0.09640994922505192</v>
       </c>
       <c r="T7">
-        <v>0.07496065573974812</v>
+        <v>0.1036241344498664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.049616333333333</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H8">
-        <v>24.148849</v>
+        <v>24.32931</v>
       </c>
       <c r="I8">
-        <v>0.1834215852211454</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J8">
-        <v>0.2058666066922657</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.829841</v>
+        <v>11.235708</v>
       </c>
       <c r="N8">
-        <v>39.659682</v>
+        <v>22.471416</v>
       </c>
       <c r="O8">
-        <v>0.55000334128091</v>
+        <v>0.1878511783758748</v>
       </c>
       <c r="P8">
-        <v>0.4536830660682806</v>
+        <v>0.1725468785395508</v>
       </c>
       <c r="Q8">
-        <v>159.622612001003</v>
+        <v>91.11900766716001</v>
       </c>
       <c r="R8">
-        <v>957.735672006018</v>
+        <v>546.71404600296</v>
       </c>
       <c r="S8">
-        <v>0.1008824847346711</v>
+        <v>0.02874500620225073</v>
       </c>
       <c r="T8">
-        <v>0.09339819332521994</v>
+        <v>0.03089594394984154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.049616333333333</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H9">
-        <v>24.148849</v>
+        <v>24.32931</v>
       </c>
       <c r="I9">
-        <v>0.1834215852211454</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J9">
-        <v>0.2058666066922657</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.698895333333333</v>
+        <v>10.610183</v>
       </c>
       <c r="N9">
-        <v>14.096686</v>
+        <v>31.830549</v>
       </c>
       <c r="O9">
-        <v>0.1303292413520919</v>
+        <v>0.1773929492768657</v>
       </c>
       <c r="P9">
-        <v>0.1612576653005389</v>
+        <v>0.2444110274203558</v>
       </c>
       <c r="Q9">
-        <v>37.82430462382377</v>
+        <v>86.04614378791001</v>
       </c>
       <c r="R9">
-        <v>340.4187416144139</v>
+        <v>774.41529409119</v>
       </c>
       <c r="S9">
-        <v>0.02390519604946995</v>
+        <v>0.02714468693401566</v>
       </c>
       <c r="T9">
-        <v>0.03319756835853906</v>
+        <v>0.04376381345068263</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.572875</v>
+        <v>8.109770000000001</v>
       </c>
       <c r="H10">
-        <v>22.718625</v>
+        <v>24.32931</v>
       </c>
       <c r="I10">
-        <v>0.1725583778980416</v>
+        <v>0.1530201005432839</v>
       </c>
       <c r="J10">
-        <v>0.193674085148492</v>
+        <v>0.1790582606381931</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.915118</v>
+        <v>37.9658605</v>
       </c>
       <c r="N10">
-        <v>1.830236</v>
+        <v>75.931721</v>
       </c>
       <c r="O10">
-        <v>0.025381845354499</v>
+        <v>0.6347558723472594</v>
       </c>
       <c r="P10">
-        <v>0.02093680630390696</v>
+        <v>0.5830420940400936</v>
       </c>
       <c r="Q10">
-        <v>6.930074224249999</v>
+        <v>307.894396507085</v>
       </c>
       <c r="R10">
-        <v>41.5804453455</v>
+        <v>1847.36637904251</v>
       </c>
       <c r="S10">
-        <v>0.004379850062431289</v>
+        <v>0.09713040740701753</v>
       </c>
       <c r="T10">
-        <v>0.004054916806840361</v>
+        <v>0.104398503237669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.572875</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H11">
-        <v>22.718625</v>
+        <v>18.889787</v>
       </c>
       <c r="I11">
-        <v>0.1725583778980416</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J11">
-        <v>0.193674085148492</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.610183</v>
+        <v>11.235708</v>
       </c>
       <c r="N11">
-        <v>31.830549</v>
+        <v>22.471416</v>
       </c>
       <c r="O11">
-        <v>0.2942855720124992</v>
+        <v>0.1878511783758748</v>
       </c>
       <c r="P11">
-        <v>0.3641224623272734</v>
+        <v>0.1725468785395508</v>
       </c>
       <c r="Q11">
-        <v>80.34958958612499</v>
+        <v>106.120065457098</v>
       </c>
       <c r="R11">
-        <v>723.146306275125</v>
+        <v>424.4802618283919</v>
       </c>
       <c r="S11">
-        <v>0.05078144094527415</v>
+        <v>0.03347733933725588</v>
       </c>
       <c r="T11">
-        <v>0.07052108477325091</v>
+        <v>0.02398825944412091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.572875</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H12">
-        <v>22.718625</v>
+        <v>18.889787</v>
       </c>
       <c r="I12">
-        <v>0.1725583778980416</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J12">
-        <v>0.193674085148492</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.829841</v>
+        <v>10.610183</v>
       </c>
       <c r="N12">
-        <v>39.659682</v>
+        <v>31.830549</v>
       </c>
       <c r="O12">
-        <v>0.55000334128091</v>
+        <v>0.1773929492768657</v>
       </c>
       <c r="P12">
-        <v>0.4536830660682806</v>
+        <v>0.2444110274203558</v>
       </c>
       <c r="Q12">
-        <v>150.168907162875</v>
+        <v>100.2120484505105</v>
       </c>
       <c r="R12">
-        <v>901.0134429772501</v>
+        <v>601.2722907030629</v>
       </c>
       <c r="S12">
-        <v>0.0949076844099368</v>
+        <v>0.03161355712709724</v>
       </c>
       <c r="T12">
-        <v>0.0878666527681371</v>
+        <v>0.03397914344431181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.572875</v>
+        <v>9.444893499999999</v>
       </c>
       <c r="H13">
-        <v>22.718625</v>
+        <v>18.889787</v>
       </c>
       <c r="I13">
-        <v>0.1725583778980416</v>
+        <v>0.1782120273436372</v>
       </c>
       <c r="J13">
-        <v>0.193674085148492</v>
+        <v>0.1390245923146177</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.698895333333333</v>
+        <v>37.9658605</v>
       </c>
       <c r="N13">
-        <v>14.096686</v>
+        <v>75.931721</v>
       </c>
       <c r="O13">
-        <v>0.1303292413520919</v>
+        <v>0.6347558723472594</v>
       </c>
       <c r="P13">
-        <v>0.1612576653005389</v>
+        <v>0.5830420940400936</v>
       </c>
       <c r="Q13">
-        <v>35.58414699741666</v>
+        <v>358.5835090583567</v>
       </c>
       <c r="R13">
-        <v>320.2573229767499</v>
+        <v>1434.334036233427</v>
       </c>
       <c r="S13">
-        <v>0.02248940248039934</v>
+        <v>0.1131211308792841</v>
       </c>
       <c r="T13">
-        <v>0.03123143080026359</v>
+        <v>0.08105718942618499</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.772825500000001</v>
+        <v>6.919746</v>
       </c>
       <c r="H14">
-        <v>13.545651</v>
+        <v>20.759238</v>
       </c>
       <c r="I14">
-        <v>0.1543281490935071</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J14">
-        <v>0.1154753672445298</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.915118</v>
+        <v>11.235708</v>
       </c>
       <c r="N14">
-        <v>1.830236</v>
+        <v>22.471416</v>
       </c>
       <c r="O14">
-        <v>0.025381845354499</v>
+        <v>0.1878511783758748</v>
       </c>
       <c r="P14">
-        <v>0.02093680630390696</v>
+        <v>0.1725468785395508</v>
       </c>
       <c r="Q14">
-        <v>6.197934525909001</v>
+        <v>77.74824549016799</v>
       </c>
       <c r="R14">
-        <v>24.791738103636</v>
+        <v>466.4894729410079</v>
       </c>
       <c r="S14">
-        <v>0.003917133214137461</v>
+        <v>0.02452697692881545</v>
       </c>
       <c r="T14">
-        <v>0.002417685396871243</v>
+        <v>0.02636228703935379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.772825500000001</v>
+        <v>6.919746</v>
       </c>
       <c r="H15">
-        <v>13.545651</v>
+        <v>20.759238</v>
       </c>
       <c r="I15">
-        <v>0.1543281490935071</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J15">
-        <v>0.1154753672445298</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>31.830549</v>
       </c>
       <c r="O15">
-        <v>0.2942855720124992</v>
+        <v>0.1773929492768657</v>
       </c>
       <c r="P15">
-        <v>0.3641224623272734</v>
+        <v>0.2444110274203558</v>
       </c>
       <c r="Q15">
-        <v>71.8609179820665</v>
+        <v>73.41977137351799</v>
       </c>
       <c r="R15">
-        <v>431.165507892399</v>
+        <v>660.777942361662</v>
       </c>
       <c r="S15">
-        <v>0.04541654763361299</v>
+        <v>0.0231614877897779</v>
       </c>
       <c r="T15">
-        <v>0.04204717505922435</v>
+        <v>0.03734193116082297</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.772825500000001</v>
+        <v>6.919746</v>
       </c>
       <c r="H16">
-        <v>13.545651</v>
+        <v>20.759238</v>
       </c>
       <c r="I16">
-        <v>0.1543281490935071</v>
+        <v>0.1305659998562212</v>
       </c>
       <c r="J16">
-        <v>0.1154753672445298</v>
+        <v>0.1527833320572709</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.829841</v>
+        <v>37.9658605</v>
       </c>
       <c r="N16">
-        <v>39.659682</v>
+        <v>75.931721</v>
       </c>
       <c r="O16">
-        <v>0.55000334128091</v>
+        <v>0.6347558723472594</v>
       </c>
       <c r="P16">
-        <v>0.4536830660682806</v>
+        <v>0.5830420940400936</v>
       </c>
       <c r="Q16">
-        <v>134.3040527857455</v>
+        <v>262.714111331433</v>
       </c>
       <c r="R16">
-        <v>537.216211142982</v>
+        <v>1576.284667988598</v>
       </c>
       <c r="S16">
-        <v>0.08488099765512734</v>
+        <v>0.08287753513762781</v>
       </c>
       <c r="T16">
-        <v>0.05238921866685898</v>
+        <v>0.0890791138570942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.772825500000001</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H17">
-        <v>13.545651</v>
+        <v>20.39531</v>
       </c>
       <c r="I17">
-        <v>0.1543281490935071</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J17">
-        <v>0.1154753672445298</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.698895333333333</v>
+        <v>11.235708</v>
       </c>
       <c r="N17">
-        <v>14.096686</v>
+        <v>22.471416</v>
       </c>
       <c r="O17">
-        <v>0.1303292413520919</v>
+        <v>0.1878511783758748</v>
       </c>
       <c r="P17">
-        <v>0.1612576653005389</v>
+        <v>0.1725468785395508</v>
       </c>
       <c r="Q17">
-        <v>31.824798135431</v>
+        <v>76.38524924316</v>
       </c>
       <c r="R17">
-        <v>190.948788812586</v>
+        <v>458.31149545896</v>
       </c>
       <c r="S17">
-        <v>0.02011347059062931</v>
+        <v>0.02409699709719784</v>
       </c>
       <c r="T17">
-        <v>0.01862128812157519</v>
+        <v>0.02590013258081067</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.034326999999999</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H18">
-        <v>24.102981</v>
+        <v>20.39531</v>
       </c>
       <c r="I18">
-        <v>0.1830731967215144</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J18">
-        <v>0.205475586419798</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.915118</v>
+        <v>10.610183</v>
       </c>
       <c r="N18">
-        <v>1.830236</v>
+        <v>31.830549</v>
       </c>
       <c r="O18">
-        <v>0.025381845354499</v>
+        <v>0.1773929492768657</v>
       </c>
       <c r="P18">
-        <v>0.02093680630390696</v>
+        <v>0.2444110274203558</v>
       </c>
       <c r="Q18">
-        <v>7.352357255585999</v>
+        <v>72.13265714724334</v>
       </c>
       <c r="R18">
-        <v>44.114143533516</v>
+        <v>649.19391432519</v>
       </c>
       <c r="S18">
-        <v>0.004646735567739251</v>
+        <v>0.02275544620345579</v>
       </c>
       <c r="T18">
-        <v>0.004302002553053008</v>
+        <v>0.03668729372550401</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.034326999999999</v>
+        <v>6.798436666666667</v>
       </c>
       <c r="H19">
-        <v>24.102981</v>
+        <v>20.39531</v>
       </c>
       <c r="I19">
-        <v>0.1830731967215144</v>
+        <v>0.1282770611583906</v>
       </c>
       <c r="J19">
-        <v>0.205475586419798</v>
+        <v>0.1501049036646229</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.610183</v>
+        <v>37.9658605</v>
       </c>
       <c r="N19">
-        <v>31.830549</v>
+        <v>75.931721</v>
       </c>
       <c r="O19">
-        <v>0.2942855720124992</v>
+        <v>0.6347558723472594</v>
       </c>
       <c r="P19">
-        <v>0.3641224623272734</v>
+        <v>0.5830420940400936</v>
       </c>
       <c r="Q19">
-        <v>85.24567975184098</v>
+        <v>258.1084981047517</v>
       </c>
       <c r="R19">
-        <v>767.2111177665689</v>
+        <v>1548.65098862851</v>
       </c>
       <c r="S19">
-        <v>0.05387580041734766</v>
+        <v>0.08142461785773697</v>
       </c>
       <c r="T19">
-        <v>0.07481827647531732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>8.034326999999999</v>
-      </c>
-      <c r="H20">
-        <v>24.102981</v>
-      </c>
-      <c r="I20">
-        <v>0.1830731967215144</v>
-      </c>
-      <c r="J20">
-        <v>0.205475586419798</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>19.829841</v>
-      </c>
-      <c r="N20">
-        <v>39.659682</v>
-      </c>
-      <c r="O20">
-        <v>0.55000334128091</v>
-      </c>
-      <c r="P20">
-        <v>0.4536830660682806</v>
-      </c>
-      <c r="Q20">
-        <v>159.319426952007</v>
-      </c>
-      <c r="R20">
-        <v>955.916561712042</v>
-      </c>
-      <c r="S20">
-        <v>0.1006908698958103</v>
-      </c>
-      <c r="T20">
-        <v>0.09322079404911195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>8.034326999999999</v>
-      </c>
-      <c r="H21">
-        <v>24.102981</v>
-      </c>
-      <c r="I21">
-        <v>0.1830731967215144</v>
-      </c>
-      <c r="J21">
-        <v>0.205475586419798</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.698895333333333</v>
-      </c>
-      <c r="N21">
-        <v>14.096686</v>
-      </c>
-      <c r="O21">
-        <v>0.1303292413520919</v>
-      </c>
-      <c r="P21">
-        <v>0.1612576653005389</v>
-      </c>
-      <c r="Q21">
-        <v>37.75246164677399</v>
-      </c>
-      <c r="R21">
-        <v>339.772154820966</v>
-      </c>
-      <c r="S21">
-        <v>0.02385979084061726</v>
-      </c>
-      <c r="T21">
-        <v>0.03313451334231574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>5.874817333333334</v>
-      </c>
-      <c r="H22">
-        <v>17.624452</v>
-      </c>
-      <c r="I22">
-        <v>0.1338657972681839</v>
-      </c>
-      <c r="J22">
-        <v>0.1502467520522703</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.915118</v>
-      </c>
-      <c r="N22">
-        <v>1.830236</v>
-      </c>
-      <c r="O22">
-        <v>0.025381845354499</v>
-      </c>
-      <c r="P22">
-        <v>0.02093680630390696</v>
-      </c>
-      <c r="Q22">
-        <v>5.376151088445334</v>
-      </c>
-      <c r="R22">
-        <v>32.256906530672</v>
-      </c>
-      <c r="S22">
-        <v>0.003397760964517759</v>
-      </c>
-      <c r="T22">
-        <v>0.00314568714550952</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>5.874817333333334</v>
-      </c>
-      <c r="H23">
-        <v>17.624452</v>
-      </c>
-      <c r="I23">
-        <v>0.1338657972681839</v>
-      </c>
-      <c r="J23">
-        <v>0.1502467520522703</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>10.610183</v>
-      </c>
-      <c r="N23">
-        <v>31.830549</v>
-      </c>
-      <c r="O23">
-        <v>0.2942855720124992</v>
-      </c>
-      <c r="P23">
-        <v>0.3641224623272734</v>
-      </c>
-      <c r="Q23">
-        <v>62.33288699823866</v>
-      </c>
-      <c r="R23">
-        <v>560.995982984148</v>
-      </c>
-      <c r="S23">
-        <v>0.03939477272197676</v>
-      </c>
-      <c r="T23">
-        <v>0.05470821731394799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>5.874817333333334</v>
-      </c>
-      <c r="H24">
-        <v>17.624452</v>
-      </c>
-      <c r="I24">
-        <v>0.1338657972681839</v>
-      </c>
-      <c r="J24">
-        <v>0.1502467520522703</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>19.829841</v>
-      </c>
-      <c r="N24">
-        <v>39.659682</v>
-      </c>
-      <c r="O24">
-        <v>0.55000334128091</v>
-      </c>
-      <c r="P24">
-        <v>0.4536830660682806</v>
-      </c>
-      <c r="Q24">
-        <v>116.496693624044</v>
-      </c>
-      <c r="R24">
-        <v>698.9801617442641</v>
-      </c>
-      <c r="S24">
-        <v>0.07362663578073407</v>
-      </c>
-      <c r="T24">
-        <v>0.06816440713787474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.874817333333334</v>
-      </c>
-      <c r="H25">
-        <v>17.624452</v>
-      </c>
-      <c r="I25">
-        <v>0.1338657972681839</v>
-      </c>
-      <c r="J25">
-        <v>0.1502467520522703</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.698895333333333</v>
-      </c>
-      <c r="N25">
-        <v>14.096686</v>
-      </c>
-      <c r="O25">
-        <v>0.1303292413520919</v>
-      </c>
-      <c r="P25">
-        <v>0.1612576653005389</v>
-      </c>
-      <c r="Q25">
-        <v>27.60515175178578</v>
-      </c>
-      <c r="R25">
-        <v>248.446365766072</v>
-      </c>
-      <c r="S25">
-        <v>0.01744662780095535</v>
-      </c>
-      <c r="T25">
-        <v>0.02422844045493806</v>
+        <v>0.08751747735830824</v>
       </c>
     </row>
   </sheetData>
